--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39809.67</v>
+        <v>58961.77</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13269.89</v>
+        <v>9826.959999999999</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3422.33</v>
+        <v>3775.52</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11443.77</v>
+        <v>12784.46</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24943.57</v>
+        <v>19634.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>22767.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,85 +439,114 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58961.77</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9826.959999999999</v>
+        <v>3775.52</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3528.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3775.52</v>
+        <v>12784.46</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11804.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12784.46</v>
+        <v>19634.08</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20195.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19634.08</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22767.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21964.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9826.959999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9582.209999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22767.71</v>
+        <v>58961.77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>57493.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,95 +439,127 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57962.61</v>
+        <v>469.33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>501.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8280.370000000001</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>469.33</v>
+        <v>3528.45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4228.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>11804.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11113.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3528.45</v>
+        <v>20195.57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19958.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11804.95</v>
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20195.57</v>
+        <v>21964.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27091.71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8280.370000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8984.889999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21964.31</v>
+        <v>57962.61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>62894.24</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -467,9 +467,7 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,9 +478,7 @@
       <c r="B4" t="n">
         <v>3528.45</v>
       </c>
-      <c r="C4" t="n">
-        <v>4228.83</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -546,7 +542,7 @@
         <v>8280.370000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>8984.889999999999</v>
+        <v>11733.08</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +555,7 @@
         <v>57962.61</v>
       </c>
       <c r="C10" t="n">
-        <v>62894.24</v>
+        <v>58665.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469.33</v>
+        <v>498.97</v>
       </c>
       <c r="C2" t="n">
-        <v>501.48</v>
+        <v>501.33</v>
       </c>
       <c r="D2" t="n">
-        <v>555.74</v>
+        <v>523.4</v>
       </c>
       <c r="E2" t="n">
-        <v>493.12</v>
+        <v>526.47</v>
       </c>
       <c r="F2" t="n">
-        <v>504.15</v>
+        <v>478.84</v>
       </c>
       <c r="G2" t="n">
-        <v>493.2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>535.45</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524.27</v>
-      </c>
-      <c r="J2" t="n">
-        <v>552.13</v>
-      </c>
-      <c r="K2" t="n">
-        <v>562.83</v>
-      </c>
-      <c r="L2" t="n">
-        <v>525.22</v>
-      </c>
-      <c r="M2" t="n">
-        <v>498.97</v>
+        <v>412.71</v>
       </c>
     </row>
     <row r="3">
@@ -547,7 +499,9 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -558,24 +512,6 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,38 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3528.45</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>4093.19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4294.19</v>
+      </c>
       <c r="D4" t="n">
-        <v>4463.67</v>
+        <v>4410.37</v>
       </c>
       <c r="E4" t="n">
-        <v>4509.85</v>
+        <v>4400.28</v>
       </c>
       <c r="F4" t="n">
-        <v>4473.06</v>
+        <v>4524.39</v>
       </c>
       <c r="G4" t="n">
-        <v>4282.03</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4646.47</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4598</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4708.93</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4722.02</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4283.76</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4093.19</v>
+        <v>4747.89</v>
       </c>
     </row>
     <row r="5">
@@ -627,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11804.95</v>
+        <v>12173.41</v>
       </c>
       <c r="C5" t="n">
-        <v>11113.28</v>
+        <v>12340.43</v>
       </c>
       <c r="D5" t="n">
-        <v>12200.15</v>
+        <v>12663.22</v>
       </c>
       <c r="E5" t="n">
-        <v>11868.55</v>
+        <v>11884.08</v>
       </c>
       <c r="F5" t="n">
-        <v>12026.47</v>
+        <v>11706.48</v>
       </c>
       <c r="G5" t="n">
-        <v>11733.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12520.73</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12688.77</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13397.58</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13604.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12442.72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12173.41</v>
+        <v>11864.58</v>
       </c>
     </row>
     <row r="6">
@@ -670,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20195.57</v>
+        <v>14677.87</v>
       </c>
       <c r="C6" t="n">
-        <v>19958.94</v>
+        <v>14830.8</v>
       </c>
       <c r="D6" t="n">
-        <v>14940.27</v>
+        <v>15365.47</v>
       </c>
       <c r="E6" t="n">
-        <v>15038.41</v>
+        <v>15028.36</v>
       </c>
       <c r="F6" t="n">
-        <v>14826.6</v>
+        <v>14598.42</v>
       </c>
       <c r="G6" t="n">
-        <v>15208.35</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14999.23</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14805.07</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15016.74</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14766.66</v>
-      </c>
-      <c r="L6" t="n">
-        <v>15169.42</v>
-      </c>
-      <c r="M6" t="n">
-        <v>14677.87</v>
+        <v>14915.61</v>
       </c>
     </row>
     <row r="7">
@@ -730,134 +614,55 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21964.31</v>
+        <v>5240.57</v>
       </c>
       <c r="C8" t="n">
-        <v>27091.71</v>
+        <v>5327.79</v>
       </c>
       <c r="D8" t="n">
-        <v>30316.81</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>5493.74</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5306.53</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5218.02</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5323.47</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8280.370000000001</v>
+        <v>31443.44</v>
       </c>
       <c r="C9" t="n">
-        <v>11733.08</v>
+        <v>31966.75</v>
       </c>
       <c r="D9" t="n">
-        <v>8925.23</v>
+        <v>32962.46</v>
       </c>
       <c r="E9" t="n">
-        <v>5318.32</v>
+        <v>31839.19</v>
       </c>
       <c r="F9" t="n">
-        <v>5305.05</v>
+        <v>31308.13</v>
       </c>
       <c r="G9" t="n">
-        <v>5286.15</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5450.31</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5436.02</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5612.56</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5609.26</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5403.52</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5240.57</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>57962.61</v>
-      </c>
-      <c r="C10" t="n">
-        <v>58665.41</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62476.64</v>
-      </c>
-      <c r="E10" t="n">
-        <v>31909.93</v>
-      </c>
-      <c r="F10" t="n">
-        <v>31830.28</v>
-      </c>
-      <c r="G10" t="n">
-        <v>31716.88</v>
-      </c>
-      <c r="H10" t="n">
-        <v>32701.88</v>
-      </c>
-      <c r="I10" t="n">
-        <v>32616.11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>33675.38</v>
-      </c>
-      <c r="K10" t="n">
-        <v>33655.56</v>
-      </c>
-      <c r="L10" t="n">
-        <v>32421.12</v>
-      </c>
-      <c r="M10" t="n">
-        <v>31443.44</v>
+        <v>31940.79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469.33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>501.48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>555.74</v>
+      </c>
+      <c r="E2" t="n">
+        <v>493.12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>493.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>535.45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524.27</v>
+      </c>
+      <c r="J2" t="n">
+        <v>552.13</v>
+      </c>
+      <c r="K2" t="n">
+        <v>562.83</v>
+      </c>
+      <c r="L2" t="n">
+        <v>525.22</v>
+      </c>
+      <c r="M2" t="n">
         <v>498.97</v>
-      </c>
-      <c r="C2" t="n">
-        <v>501.33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>523.4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>526.47</v>
-      </c>
-      <c r="F2" t="n">
-        <v>478.84</v>
-      </c>
-      <c r="G2" t="n">
-        <v>412.71</v>
       </c>
     </row>
     <row r="3">
@@ -499,9 +547,7 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -512,6 +558,24 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -522,22 +586,38 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3528.45</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>4463.67</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4509.85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4473.06</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4282.03</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4646.47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4598</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4708.93</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4722.02</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4283.76</v>
+      </c>
+      <c r="M4" t="n">
         <v>4093.19</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4294.19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4410.37</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4400.28</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4524.39</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4747.89</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +627,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>11804.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11113.28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12200.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11868.55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12026.47</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11733.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12520.73</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12688.77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13397.58</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13604.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12442.72</v>
+      </c>
+      <c r="M5" t="n">
         <v>12173.41</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12340.43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12663.22</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11884.08</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11706.48</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11864.58</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +670,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>20195.57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19958.94</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14940.27</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15038.41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14826.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15208.35</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14999.23</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14805.07</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15016.74</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14766.66</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15169.42</v>
+      </c>
+      <c r="M6" t="n">
         <v>14677.87</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14830.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15365.47</v>
-      </c>
-      <c r="E6" t="n">
-        <v>15028.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14598.42</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14915.61</v>
       </c>
     </row>
     <row r="7">
@@ -614,55 +730,134 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5240.57</v>
+        <v>21964.31</v>
       </c>
       <c r="C8" t="n">
-        <v>5327.79</v>
+        <v>27091.71</v>
       </c>
       <c r="D8" t="n">
-        <v>5493.74</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5306.53</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5218.02</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5323.47</v>
-      </c>
+        <v>30316.81</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8280.370000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11733.08</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8925.23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5318.32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5305.05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5286.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5450.31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5436.02</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5612.56</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5609.26</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5403.52</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5240.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
+        <v>57962.61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>58665.41</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62476.64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31909.93</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31830.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31716.88</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32701.88</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32616.11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>33675.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>33655.56</v>
+      </c>
+      <c r="L10" t="n">
+        <v>32421.12</v>
+      </c>
+      <c r="M10" t="n">
         <v>31443.44</v>
-      </c>
-      <c r="C9" t="n">
-        <v>31966.75</v>
-      </c>
-      <c r="D9" t="n">
-        <v>32962.46</v>
-      </c>
-      <c r="E9" t="n">
-        <v>31839.19</v>
-      </c>
-      <c r="F9" t="n">
-        <v>31308.13</v>
-      </c>
-      <c r="G9" t="n">
-        <v>31940.79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,41 +572,59 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469.33</v>
+        <v>498.97</v>
       </c>
       <c r="C2" t="n">
-        <v>501.48</v>
+        <v>501.33</v>
       </c>
       <c r="D2" t="n">
-        <v>555.74</v>
+        <v>523.4</v>
       </c>
       <c r="E2" t="n">
-        <v>493.12</v>
+        <v>526.47</v>
       </c>
       <c r="F2" t="n">
-        <v>504.15</v>
+        <v>478.84</v>
       </c>
       <c r="G2" t="n">
-        <v>493.2</v>
+        <v>412.71</v>
       </c>
       <c r="H2" t="n">
-        <v>535.45</v>
+        <v>388.42</v>
       </c>
       <c r="I2" t="n">
-        <v>524.27</v>
+        <v>399.79</v>
       </c>
       <c r="J2" t="n">
-        <v>552.13</v>
+        <v>338.92</v>
       </c>
       <c r="K2" t="n">
-        <v>562.83</v>
+        <v>373.8</v>
       </c>
       <c r="L2" t="n">
-        <v>525.22</v>
+        <v>355.33</v>
       </c>
       <c r="M2" t="n">
-        <v>498.97</v>
-      </c>
+        <v>414.75</v>
+      </c>
+      <c r="N2" t="n">
+        <v>403.78</v>
+      </c>
+      <c r="O2" t="n">
+        <v>392.92</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,7 +635,9 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -578,6 +668,20 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -586,38 +690,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3528.45</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>4093.19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4294.19</v>
+      </c>
       <c r="D4" t="n">
-        <v>4463.67</v>
+        <v>4410.37</v>
       </c>
       <c r="E4" t="n">
-        <v>4509.85</v>
+        <v>4400.28</v>
       </c>
       <c r="F4" t="n">
-        <v>4473.06</v>
+        <v>4524.39</v>
       </c>
       <c r="G4" t="n">
-        <v>4282.03</v>
+        <v>4747.89</v>
       </c>
       <c r="H4" t="n">
-        <v>4646.47</v>
+        <v>4223.32</v>
       </c>
       <c r="I4" t="n">
-        <v>4598</v>
+        <v>4496.42</v>
       </c>
       <c r="J4" t="n">
-        <v>4708.93</v>
+        <v>4321.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4722.02</v>
+        <v>4714.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4283.76</v>
+        <v>4654.85</v>
       </c>
       <c r="M4" t="n">
-        <v>4093.19</v>
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7392.76</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7870.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7227.49</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6465.18</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8100.35</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7935.1</v>
       </c>
     </row>
     <row r="5">
@@ -627,40 +775,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11804.95</v>
+        <v>12173.41</v>
       </c>
       <c r="C5" t="n">
-        <v>11113.28</v>
+        <v>12340.43</v>
       </c>
       <c r="D5" t="n">
-        <v>12200.15</v>
+        <v>12663.22</v>
       </c>
       <c r="E5" t="n">
-        <v>11868.55</v>
+        <v>11884.08</v>
       </c>
       <c r="F5" t="n">
-        <v>12026.47</v>
+        <v>11706.48</v>
       </c>
       <c r="G5" t="n">
-        <v>11733.3</v>
+        <v>11864.58</v>
       </c>
       <c r="H5" t="n">
-        <v>12520.73</v>
+        <v>13389.34</v>
       </c>
       <c r="I5" t="n">
-        <v>12688.77</v>
+        <v>11172.68</v>
       </c>
       <c r="J5" t="n">
-        <v>13397.58</v>
+        <v>13155.74</v>
       </c>
       <c r="K5" t="n">
-        <v>13604.05</v>
+        <v>11265.53</v>
       </c>
       <c r="L5" t="n">
-        <v>12442.72</v>
+        <v>11062.91</v>
       </c>
       <c r="M5" t="n">
-        <v>12173.41</v>
+        <v>12418.69</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13369.12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13424.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12161.72</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13250.36</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13746.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10703.34</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11165.97</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11898.39</v>
+      </c>
+      <c r="V5" t="n">
+        <v>12241.65</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13244.01</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12080.07</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11470.8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>14097.95</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9746.49</v>
       </c>
     </row>
     <row r="6">
@@ -670,40 +860,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20195.57</v>
+        <v>14677.87</v>
       </c>
       <c r="C6" t="n">
-        <v>19958.94</v>
+        <v>14830.8</v>
       </c>
       <c r="D6" t="n">
-        <v>14940.27</v>
+        <v>15365.47</v>
       </c>
       <c r="E6" t="n">
-        <v>15038.41</v>
+        <v>15028.36</v>
       </c>
       <c r="F6" t="n">
-        <v>14826.6</v>
+        <v>14598.42</v>
       </c>
       <c r="G6" t="n">
-        <v>15208.35</v>
+        <v>14915.61</v>
       </c>
       <c r="H6" t="n">
-        <v>14999.23</v>
+        <v>14622.21</v>
       </c>
       <c r="I6" t="n">
-        <v>14805.07</v>
+        <v>14788.83</v>
       </c>
       <c r="J6" t="n">
-        <v>15016.74</v>
+        <v>14619.85</v>
       </c>
       <c r="K6" t="n">
-        <v>14766.66</v>
+        <v>14897.4</v>
       </c>
       <c r="L6" t="n">
-        <v>15169.42</v>
+        <v>14628.35</v>
       </c>
       <c r="M6" t="n">
-        <v>14677.87</v>
+        <v>15365.7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14413.51</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15469.98</v>
+      </c>
+      <c r="P6" t="n">
+        <v>14868.28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14738.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>14852.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15389.91</v>
+      </c>
+      <c r="T6" t="n">
+        <v>14620.62</v>
+      </c>
+      <c r="U6" t="n">
+        <v>15521.48</v>
+      </c>
+      <c r="V6" t="n">
+        <v>14585.93</v>
+      </c>
+      <c r="W6" t="n">
+        <v>15370.25</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15107.42</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14690.83</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>14296.67</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14739.91</v>
       </c>
     </row>
     <row r="7">
@@ -748,116 +980,217 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21964.31</v>
+        <v>5240.57</v>
       </c>
       <c r="C8" t="n">
-        <v>27091.71</v>
+        <v>5327.79</v>
       </c>
       <c r="D8" t="n">
-        <v>30316.81</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>5493.74</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5306.53</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5218.02</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5323.47</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5437.22</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5142.95</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5405.98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5208.49</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5116.91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4699.86</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5637.28</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5857.39</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6757.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6997.22</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7149.84</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6523.31</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6446.65</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6854.97</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8555.08</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9121.09</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8603.75</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8156.7</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9123.74</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8105.38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8280.370000000001</v>
+        <v>31443.44</v>
       </c>
       <c r="C9" t="n">
-        <v>11733.08</v>
+        <v>31966.75</v>
       </c>
       <c r="D9" t="n">
-        <v>8925.23</v>
+        <v>32962.46</v>
       </c>
       <c r="E9" t="n">
-        <v>5318.32</v>
+        <v>31839.19</v>
       </c>
       <c r="F9" t="n">
-        <v>5305.05</v>
+        <v>31308.13</v>
       </c>
       <c r="G9" t="n">
-        <v>5286.15</v>
+        <v>31940.79</v>
       </c>
       <c r="H9" t="n">
-        <v>5450.31</v>
+        <v>32623.29</v>
       </c>
       <c r="I9" t="n">
-        <v>5436.02</v>
+        <v>30857.72</v>
       </c>
       <c r="J9" t="n">
-        <v>5612.56</v>
+        <v>32435.86</v>
       </c>
       <c r="K9" t="n">
-        <v>5609.26</v>
+        <v>31250.93</v>
       </c>
       <c r="L9" t="n">
-        <v>5403.52</v>
+        <v>30701.44</v>
       </c>
       <c r="M9" t="n">
-        <v>5240.57</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>57962.61</v>
-      </c>
-      <c r="C10" t="n">
-        <v>58665.41</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62476.64</v>
-      </c>
-      <c r="E10" t="n">
-        <v>31909.93</v>
-      </c>
-      <c r="F10" t="n">
-        <v>31830.28</v>
-      </c>
-      <c r="G10" t="n">
-        <v>31716.88</v>
-      </c>
-      <c r="H10" t="n">
-        <v>32701.88</v>
-      </c>
-      <c r="I10" t="n">
-        <v>32616.11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>33675.38</v>
-      </c>
-      <c r="K10" t="n">
-        <v>33655.56</v>
-      </c>
-      <c r="L10" t="n">
-        <v>32421.12</v>
-      </c>
-      <c r="M10" t="n">
-        <v>31443.44</v>
+        <v>28199.14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>28186.41</v>
+      </c>
+      <c r="O9" t="n">
+        <v>29286.95</v>
+      </c>
+      <c r="P9" t="n">
+        <v>27030</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>27988.86</v>
+      </c>
+      <c r="R9" t="n">
+        <v>28599.34</v>
+      </c>
+      <c r="S9" t="n">
+        <v>26093.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>25786.59</v>
+      </c>
+      <c r="U9" t="n">
+        <v>27419.87</v>
+      </c>
+      <c r="V9" t="n">
+        <v>34220.34</v>
+      </c>
+      <c r="W9" t="n">
+        <v>36484.36</v>
+      </c>
+      <c r="X9" t="n">
+        <v>34414.98</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>32626.81</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>36494.97</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>32421.5</v>
       </c>
     </row>
   </sheetData>
